--- a/data/baseline+diary/024_-_Full_Utregning.xlsx
+++ b/data/baseline+diary/024_-_Full_Utregning.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/saa054_uit_no/Documents/0 - Forskerlinjen/.0--MW_Sleep-Article/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\Dropbox\mw-sleep-analysis\data\steffen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E7EC3C-93A0-4169-8D60-455FB364643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965E6C04-5081-4EF4-81BF-4D3F8A7148F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{AD6D089E-9814-4872-BBFB-296E4CC5E2AD}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8260" activeTab="3" xr2:uid="{AD6D089E-9814-4872-BBFB-296E4CC5E2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="4" r:id="rId1"/>
     <sheet name="Sleep Quiz" sheetId="1" r:id="rId2"/>
     <sheet name="Sleep Diary" sheetId="3" r:id="rId3"/>
-    <sheet name="PANAS" sheetId="2" r:id="rId4"/>
-    <sheet name="Feedback-comments" sheetId="5" r:id="rId5"/>
+    <sheet name="sleepdiary2" sheetId="6" r:id="rId4"/>
+    <sheet name="PANAS" sheetId="2" r:id="rId5"/>
+    <sheet name="Feedback-comments" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="306">
   <si>
     <t>2 - Fatigue</t>
   </si>
@@ -1829,6 +1830,30 @@
   </si>
   <si>
     <t xml:space="preserve">fotball, være våken, pasientsaker, generelt metronomet </t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2285,11 +2310,26 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2318,14 +2358,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -2344,13 +2377,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2401,7 +2427,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -2440,7 +2466,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2738,20 +2764,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9624EA3D-E15A-4356-99E1-D16A0B03F96F}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>124</v>
       </c>
@@ -2761,7 +2787,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="43" t="s">
         <v>105</v>
       </c>
@@ -2773,7 +2799,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
         <v>106</v>
       </c>
@@ -2783,7 +2809,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
         <v>133</v>
       </c>
@@ -2795,7 +2821,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="43" t="s">
         <v>107</v>
       </c>
@@ -2805,7 +2831,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="43" t="s">
         <v>134</v>
       </c>
@@ -2817,7 +2843,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="43" t="s">
         <v>109</v>
       </c>
@@ -2829,7 +2855,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="43" t="s">
         <v>111</v>
       </c>
@@ -2846,7 +2872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="43" t="s">
         <v>110</v>
       </c>
@@ -2858,7 +2884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="43" t="s">
         <v>112</v>
       </c>
@@ -2875,7 +2901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="43" t="s">
         <v>116</v>
       </c>
@@ -2887,7 +2913,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="43" t="s">
         <v>115</v>
       </c>
@@ -2899,7 +2925,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="43" t="s">
         <v>113</v>
       </c>
@@ -2915,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="43" t="s">
         <v>114</v>
       </c>
@@ -2927,7 +2953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>125</v>
       </c>
@@ -2937,14 +2963,14 @@
       </c>
       <c r="D15" s="59"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="43" t="s">
         <v>121</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="60"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C17" s="40" t="s">
         <v>160</v>
       </c>
@@ -2955,7 +2981,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C18" s="40" t="s">
         <v>108</v>
       </c>
@@ -2964,7 +2990,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B19" s="43" t="s">
         <v>122</v>
       </c>
@@ -2974,14 +3000,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" s="43" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="62"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C21" s="40" t="s">
         <v>160</v>
       </c>
@@ -2992,7 +3018,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C22" s="40" t="s">
         <v>108</v>
       </c>
@@ -3001,14 +3027,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B23" s="43" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="62"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C24" s="40" t="s">
         <v>160</v>
       </c>
@@ -3019,7 +3045,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C25" s="48" t="s">
         <v>108</v>
       </c>
@@ -3028,7 +3054,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B26" s="43" t="s">
         <v>129</v>
       </c>
@@ -3040,7 +3066,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B27" s="43" t="s">
         <v>262</v>
       </c>
@@ -3053,14 +3079,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="46" t="s">
         <v>126</v>
       </c>
       <c r="B28" s="58"/>
       <c r="C28" s="65"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B29" s="43" t="s">
         <v>117</v>
       </c>
@@ -3076,7 +3102,7 @@
       <c r="L29" s="50"/>
       <c r="M29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B30" s="43" t="s">
         <v>118</v>
       </c>
@@ -3092,7 +3118,7 @@
       <c r="L30" s="50"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B31" s="43" t="s">
         <v>119</v>
       </c>
@@ -3108,7 +3134,7 @@
       <c r="L31" s="50"/>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B32" s="43" t="s">
         <v>120</v>
       </c>
@@ -3124,14 +3150,14 @@
       <c r="L32" s="50"/>
       <c r="M32" s="37"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="46" t="s">
         <v>127</v>
       </c>
       <c r="B33" s="58"/>
       <c r="C33" s="65"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B34" s="43" t="s">
         <v>117</v>
       </c>
@@ -3147,7 +3173,7 @@
       <c r="L34" s="50"/>
       <c r="M34" s="37"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B35" s="43" t="s">
         <v>118</v>
       </c>
@@ -3163,7 +3189,7 @@
       <c r="L35" s="50"/>
       <c r="M35" s="37"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B36" s="43" t="s">
         <v>119</v>
       </c>
@@ -3179,7 +3205,7 @@
       <c r="L36" s="50"/>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B37" s="43" t="s">
         <v>120</v>
       </c>
@@ -3210,38 +3236,38 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
-    <col min="9" max="9" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="1"/>
+    <col min="9" max="9" width="7.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.26953125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7265625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" style="1" customWidth="1"/>
     <col min="21" max="21" width="7" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="3.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7265625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.453125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.453125" style="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.44140625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.44140625" style="1"/>
+    <col min="27" max="27" width="4.453125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -3268,7 +3294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
@@ -3331,7 +3357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>132</v>
       </c>
@@ -3396,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>167</v>
       </c>
@@ -3458,7 +3484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -3525,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -3593,7 +3619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -3660,7 +3686,7 @@
       </c>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -3720,7 +3746,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
@@ -3776,7 +3802,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3829,7 +3855,7 @@
       <c r="Z10"/>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
@@ -3875,7 +3901,7 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -3923,7 +3949,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N13" s="10" t="s">
         <v>48</v>
       </c>
@@ -3950,7 +3976,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N14" s="10" t="s">
         <v>51</v>
       </c>
@@ -3977,7 +4003,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N15" s="10" t="s">
         <v>54</v>
       </c>
@@ -4004,7 +4030,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N16" s="10" t="s">
         <v>57</v>
       </c>
@@ -4031,7 +4057,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -4061,7 +4087,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N18" s="10" t="s">
         <v>63</v>
       </c>
@@ -4088,7 +4114,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N19" s="10" t="s">
         <v>66</v>
       </c>
@@ -4115,7 +4141,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N20" s="10" t="s">
         <v>69</v>
       </c>
@@ -4138,7 +4164,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N21" s="10" t="s">
         <v>72</v>
       </c>
@@ -4161,7 +4187,7 @@
       </c>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="N22" s="10" t="s">
         <v>74</v>
       </c>
@@ -4182,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="N23" s="10" t="s">
         <v>76</v>
       </c>
@@ -4198,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>170</v>
       </c>
@@ -4206,13 +4232,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
         <v>139</v>
       </c>
       <c r="B41" s="54"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>20</v>
       </c>
@@ -4232,7 +4258,7 @@
       <c r="M42" s="55"/>
       <c r="N42" s="55"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>24</v>
       </c>
@@ -4247,7 +4273,7 @@
       <c r="H43" s="55"/>
       <c r="I43" s="55"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>28</v>
       </c>
@@ -4262,7 +4288,7 @@
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>31</v>
       </c>
@@ -4280,7 +4306,7 @@
       <c r="K45" s="55"/>
       <c r="L45" s="55"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>35</v>
       </c>
@@ -4298,7 +4324,7 @@
       <c r="K46" s="55"/>
       <c r="L46" s="55"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>37</v>
       </c>
@@ -4316,7 +4342,7 @@
       <c r="K47" s="55"/>
       <c r="L47" s="55"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>39</v>
       </c>
@@ -4334,7 +4360,7 @@
       <c r="K48" s="55"/>
       <c r="L48" s="55"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>40</v>
       </c>
@@ -4352,7 +4378,7 @@
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="56" t="s">
         <v>148</v>
       </c>
@@ -4363,7 +4389,7 @@
       <c r="D51" s="56"/>
       <c r="E51" s="56"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>132</v>
       </c>
@@ -4375,7 +4401,7 @@
       <c r="E52" s="55"/>
       <c r="F52" s="55"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>24</v>
       </c>
@@ -4386,7 +4412,7 @@
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
         <v>28</v>
       </c>
@@ -4396,7 +4422,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>31</v>
       </c>
@@ -4411,7 +4437,7 @@
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>35</v>
       </c>
@@ -4425,7 +4451,7 @@
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>37</v>
       </c>
@@ -4443,7 +4469,7 @@
       <c r="K57" s="55"/>
       <c r="L57" s="55"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
         <v>39</v>
       </c>
@@ -4460,7 +4486,7 @@
       <c r="J58" s="55"/>
       <c r="K58" s="55"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>40</v>
       </c>
@@ -4476,7 +4502,7 @@
       <c r="I59" s="55"/>
       <c r="J59" s="55"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>43</v>
       </c>
@@ -4496,7 +4522,7 @@
       <c r="M60" s="55"/>
       <c r="N60" s="55"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="56" t="s">
         <v>179</v>
       </c>
@@ -4518,7 +4544,7 @@
       <c r="O62" s="56"/>
       <c r="P62" s="56"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>20</v>
       </c>
@@ -4527,7 +4553,7 @@
       </c>
       <c r="C63" s="55"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>24</v>
       </c>
@@ -4535,7 +4561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>28</v>
       </c>
@@ -4549,7 +4575,7 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
         <v>31</v>
       </c>
@@ -4561,7 +4587,7 @@
       <c r="E66" s="55"/>
       <c r="F66" s="55"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>35</v>
       </c>
@@ -4576,7 +4602,7 @@
       <c r="H67" s="55"/>
       <c r="I67" s="55"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
         <v>37</v>
       </c>
@@ -4586,7 +4612,7 @@
       <c r="C68" s="55"/>
       <c r="D68" s="55"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>39</v>
       </c>
@@ -4598,7 +4624,7 @@
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
         <v>40</v>
       </c>
@@ -4611,7 +4637,7 @@
       <c r="F70" s="55"/>
       <c r="G70" s="55"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="56" t="s">
         <v>188</v>
       </c>
@@ -4622,7 +4648,7 @@
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>194</v>
       </c>
@@ -4632,7 +4658,7 @@
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
         <v>195</v>
       </c>
@@ -4642,7 +4668,7 @@
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
         <v>196</v>
       </c>
@@ -4653,7 +4679,7 @@
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="39" t="s">
         <v>197</v>
       </c>
@@ -4673,7 +4699,7 @@
       <c r="M76" s="55"/>
       <c r="N76" s="55"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>28</v>
       </c>
@@ -4710,7 +4736,7 @@
       <c r="AD77" s="55"/>
       <c r="AE77" s="55"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="39" t="s">
         <v>31</v>
       </c>
@@ -4735,7 +4761,7 @@
       <c r="R78" s="55"/>
       <c r="S78" s="55"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
         <v>35</v>
       </c>
@@ -4756,7 +4782,7 @@
       <c r="N79" s="55"/>
       <c r="O79" s="55"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
         <v>198</v>
       </c>
@@ -4774,7 +4800,7 @@
       <c r="K80" s="55"/>
       <c r="L80" s="55"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
         <v>39</v>
       </c>
@@ -4794,7 +4820,7 @@
       <c r="M81" s="55"/>
       <c r="N81" s="55"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
         <v>40</v>
       </c>
@@ -4812,7 +4838,7 @@
       <c r="K82" s="55"/>
       <c r="L82" s="55"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
         <v>43</v>
       </c>
@@ -4832,7 +4858,7 @@
       <c r="M83" s="55"/>
       <c r="N83" s="55"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="39" t="s">
         <v>209</v>
       </c>
@@ -4862,7 +4888,7 @@
       <c r="W84" s="55"/>
       <c r="X84" s="55"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="39" t="s">
         <v>208</v>
       </c>
@@ -4874,7 +4900,7 @@
       <c r="E85" s="55"/>
       <c r="F85" s="55"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>220</v>
       </c>
@@ -4888,7 +4914,7 @@
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
         <v>221</v>
       </c>
@@ -4899,7 +4925,7 @@
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="39" t="s">
         <v>222</v>
       </c>
@@ -4910,7 +4936,7 @@
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="39" t="s">
         <v>223</v>
       </c>
@@ -4921,7 +4947,7 @@
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="39" t="s">
         <v>224</v>
       </c>
@@ -4931,7 +4957,7 @@
       <c r="C90" s="55"/>
       <c r="D90" s="55"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
         <v>225</v>
       </c>
@@ -4941,7 +4967,7 @@
       <c r="C91" s="55"/>
       <c r="D91" s="55"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
         <v>226</v>
       </c>
@@ -4951,7 +4977,7 @@
       <c r="C92" s="55"/>
       <c r="D92" s="55"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
         <v>227</v>
       </c>
@@ -4961,7 +4987,7 @@
       <c r="C93" s="55"/>
       <c r="D93" s="55"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="39" t="s">
         <v>228</v>
       </c>
@@ -4969,7 +4995,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="39" t="s">
         <v>229</v>
       </c>
@@ -4986,7 +5012,7 @@
       <c r="J95" s="55"/>
       <c r="K95" s="55"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="39" t="s">
         <v>53</v>
       </c>
@@ -5010,7 +5036,7 @@
       <c r="Q96" s="55"/>
       <c r="R96" s="55"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="39" t="s">
         <v>233</v>
       </c>
@@ -5024,7 +5050,7 @@
       <c r="G97" s="55"/>
       <c r="H97" s="55"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="39" t="s">
         <v>235</v>
       </c>
@@ -5045,7 +5071,7 @@
       <c r="N98" s="55"/>
       <c r="O98" s="55"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="39" t="s">
         <v>56</v>
       </c>
@@ -5070,12 +5096,12 @@
       <c r="R99" s="55"/>
       <c r="S99" s="55"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="39" t="s">
         <v>132</v>
       </c>
@@ -5102,7 +5128,7 @@
       <c r="T102" s="55"/>
       <c r="U102" s="55"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="39" t="s">
         <v>24</v>
       </c>
@@ -5130,7 +5156,7 @@
       <c r="U103" s="55"/>
       <c r="V103" s="55"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="39" t="s">
         <v>28</v>
       </c>
@@ -5166,7 +5192,7 @@
       <c r="AC104" s="55"/>
       <c r="AD104" s="55"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="39" t="s">
         <v>31</v>
       </c>
@@ -5199,7 +5225,7 @@
       <c r="Z105" s="55"/>
       <c r="AA105" s="55"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="39" t="s">
         <v>35</v>
       </c>
@@ -5222,7 +5248,7 @@
       <c r="P106" s="55"/>
       <c r="Q106" s="55"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
         <v>37</v>
       </c>
@@ -5246,7 +5272,7 @@
       <c r="Q107" s="55"/>
       <c r="R107" s="55"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
         <v>39</v>
       </c>
@@ -5279,7 +5305,7 @@
       <c r="Z108" s="55"/>
       <c r="AA108" s="55"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" s="56" t="s">
         <v>246</v>
       </c>
@@ -5287,13 +5313,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="56" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="56"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
         <v>20</v>
       </c>
@@ -5321,7 +5347,7 @@
       <c r="U113" s="55"/>
       <c r="V113" s="55"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
         <v>24</v>
       </c>
@@ -5345,7 +5371,7 @@
       <c r="Q114" s="55"/>
       <c r="R114" s="55"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
         <v>28</v>
       </c>
@@ -5385,38 +5411,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F439B-9760-4E2D-9273-BA22847E3391}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-    <col min="8" max="10" width="4.21875" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" customWidth="1"/>
+    <col min="8" max="10" width="4.26953125" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="14" width="5.21875" customWidth="1"/>
+    <col min="13" max="14" width="5.26953125" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="4.21875" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1"/>
+    <col min="16" max="16" width="4.26953125" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="5.21875" customWidth="1"/>
-    <col min="20" max="20" width="8.21875" customWidth="1"/>
-    <col min="21" max="21" width="10.21875" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" customWidth="1"/>
-    <col min="23" max="23" width="13.77734375" customWidth="1"/>
-    <col min="24" max="24" width="11.21875" customWidth="1"/>
-    <col min="25" max="25" width="13.77734375" customWidth="1"/>
-    <col min="26" max="26" width="12.77734375" customWidth="1"/>
-    <col min="29" max="29" width="7.21875" customWidth="1"/>
+    <col min="19" max="19" width="5.26953125" customWidth="1"/>
+    <col min="20" max="20" width="8.26953125" customWidth="1"/>
+    <col min="21" max="21" width="10.26953125" customWidth="1"/>
+    <col min="22" max="22" width="3.7265625" customWidth="1"/>
+    <col min="23" max="23" width="13.7265625" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" customWidth="1"/>
+    <col min="26" max="26" width="12.7265625" customWidth="1"/>
+    <col min="29" max="29" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>77</v>
       </c>
@@ -5431,7 +5457,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D2" s="28" t="s">
         <v>78</v>
       </c>
@@ -5445,7 +5471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>272</v>
       </c>
@@ -5510,7 +5536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="75">
         <v>44342</v>
       </c>
@@ -5587,7 +5613,7 @@
         <v>24.999999999999854</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="75">
         <v>44343</v>
       </c>
@@ -5665,7 +5691,7 @@
       </c>
       <c r="AD5" s="36"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="75">
         <v>44344</v>
       </c>
@@ -5728,7 +5754,7 @@
       </c>
       <c r="AD6" s="36"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="75">
         <v>44345</v>
       </c>
@@ -5822,7 +5848,7 @@
       </c>
       <c r="AD7" s="36"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="75">
         <v>44346</v>
       </c>
@@ -5915,7 +5941,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="75">
         <v>44347</v>
       </c>
@@ -6008,7 +6034,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="75">
         <v>44348</v>
       </c>
@@ -6101,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="75">
         <v>44349</v>
       </c>
@@ -6194,7 +6220,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="75">
         <v>44350</v>
       </c>
@@ -6287,7 +6313,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="75">
         <v>44351</v>
       </c>
@@ -6380,7 +6406,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="75">
         <v>44352</v>
       </c>
@@ -6473,7 +6499,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="75">
         <v>44353</v>
       </c>
@@ -6567,7 +6593,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="75">
         <v>44354</v>
       </c>
@@ -6647,7 +6673,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="75">
         <v>44355</v>
       </c>
@@ -6727,7 +6753,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="75">
         <v>44356</v>
       </c>
@@ -6804,7 +6830,7 @@
         <v>59.00000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="32"/>
       <c r="B19" s="32">
         <v>16</v>
@@ -6867,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="32"/>
       <c r="B20" s="32">
         <v>17</v>
@@ -6930,12 +6956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>162</v>
       </c>
@@ -6943,7 +6969,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>161</v>
       </c>
@@ -6951,17 +6977,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B63" s="32" t="str">
         <f>IF(C15="ESD",15,"")</f>
         <v/>
@@ -7023,9 +7049,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="X8:Y10">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(X8))&gt;0</formula>
+  <conditionalFormatting sqref="W12:W14">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="5">
+      <formula>LEN(TRIM(W12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:Z7 W8:W10">
@@ -7033,34 +7059,34 @@
       <formula>LEN(TRIM(W7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12:W14 W11:Y11">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+  <conditionalFormatting sqref="W11:Z11">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(W11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:Z10 Z12:Z14">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
-      <formula>LEN(TRIM(Z8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(Z11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(AA12))&gt;0</formula>
+  <conditionalFormatting sqref="X8:Y10">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="9">
+      <formula>LEN(TRIM(X8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:Y14">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(X12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:Z14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(X12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8:Z10 Z12:Z14">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="8">
+      <formula>LEN(TRIM(Z8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(AA12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7069,6 +7095,462 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E945914-7BE0-4AA4-9217-53AB3894D080}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K1" s="75">
+        <v>44342</v>
+      </c>
+      <c r="L1" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="M1" s="87">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="N1">
+        <v>3</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="87">
+        <v>0.28125</v>
+      </c>
+      <c r="R1" s="87">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="S1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="75">
+        <v>44343</v>
+      </c>
+      <c r="B2" s="87">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="C2" s="87">
+        <v>0.97083333333333333</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="87">
+        <v>0.28125</v>
+      </c>
+      <c r="H2" s="87">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="75">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="75">
+        <v>44345</v>
+      </c>
+      <c r="B4" s="87">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C4" s="87">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="87">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="H4" s="87">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="75">
+        <v>44346</v>
+      </c>
+      <c r="B5" s="87">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="C5" s="87">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="87">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H5" s="87">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="75">
+        <v>44347</v>
+      </c>
+      <c r="B6" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C6" s="87">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="87">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="75">
+        <v>44348</v>
+      </c>
+      <c r="B7" s="87">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C7" s="87">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>183</v>
+      </c>
+      <c r="G7" s="87">
+        <v>0.28125</v>
+      </c>
+      <c r="H7" s="87">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="75">
+        <v>44349</v>
+      </c>
+      <c r="B8" s="87">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="C8" s="87">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="87">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H8" s="87">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="75">
+        <v>44350</v>
+      </c>
+      <c r="B9" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="87">
+        <v>0.93194444444444446</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="87">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="H9" s="87">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="75">
+        <v>44351</v>
+      </c>
+      <c r="B10" s="87">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="C10" s="87">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="87">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H10" s="87">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="75">
+        <v>44352</v>
+      </c>
+      <c r="B11" s="87">
+        <v>0.97291666666666676</v>
+      </c>
+      <c r="C11" s="87">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="87">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="H11" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="75">
+        <v>44353</v>
+      </c>
+      <c r="B12" s="87">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C12" s="87">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="87">
+        <v>0.375</v>
+      </c>
+      <c r="H12" s="87">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="75">
+        <v>44354</v>
+      </c>
+      <c r="B13" s="87">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C13" s="87">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13" s="87">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="H13" s="87">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="75">
+        <v>44355</v>
+      </c>
+      <c r="B14" s="87">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C14" s="87">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="87">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="H14" s="87">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="75">
+        <v>44356</v>
+      </c>
+      <c r="B15" s="87">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C15" s="87">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="87">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="H15" s="87">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A0A131-AB0B-48E7-BA89-4CA72DAFD876}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -7076,19 +7558,19 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="2.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="12" max="12" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>99</v>
       </c>
@@ -7108,7 +7590,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7122,7 +7604,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -7160,7 +7642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -7198,7 +7680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>24</v>
       </c>
@@ -7240,7 +7722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -7266,7 +7748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
@@ -7304,7 +7786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -7346,7 +7828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -7372,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
@@ -7398,7 +7880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>40</v>
       </c>
@@ -7424,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -7450,7 +7932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
@@ -7476,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
@@ -7502,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>53</v>
       </c>
@@ -7528,7 +8010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
@@ -7554,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -7580,7 +8062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>62</v>
       </c>
@@ -7606,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
@@ -7632,7 +8114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
@@ -7658,7 +8140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -7684,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>73</v>
       </c>
@@ -7710,7 +8192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>75</v>
       </c>
@@ -7741,7 +8223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA813570-53F3-4A84-BAEE-DE1DA48FE075}">
   <dimension ref="A1:O59"/>
   <sheetViews>
@@ -7749,22 +8231,22 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
@@ -7773,7 +8255,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>197</v>
       </c>
@@ -7784,7 +8266,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>28</v>
       </c>
@@ -7795,12 +8277,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>20</v>
       </c>
@@ -7814,7 +8296,7 @@
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>24</v>
       </c>
@@ -7828,7 +8310,7 @@
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="69" t="s">
         <v>28</v>
       </c>
@@ -7842,7 +8324,7 @@
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>31</v>
       </c>
@@ -7856,12 +8338,12 @@
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>274</v>
       </c>
@@ -7869,23 +8351,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>273</v>
       </c>
       <c r="B15" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>20</v>
       </c>
@@ -7894,7 +8376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
         <v>197</v>
       </c>
@@ -7905,7 +8387,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>28</v>
       </c>
@@ -7916,12 +8398,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
         <v>20</v>
       </c>
@@ -7936,7 +8418,7 @@
       <c r="H24" s="50"/>
       <c r="I24" s="78"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
         <v>24</v>
       </c>
@@ -7951,7 +8433,7 @@
       <c r="H25" s="50"/>
       <c r="I25" s="78"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
         <v>28</v>
       </c>
@@ -7966,7 +8448,7 @@
       <c r="H26" s="50"/>
       <c r="I26" s="78"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
         <v>31</v>
       </c>
@@ -7981,12 +8463,12 @@
       <c r="H27" s="50"/>
       <c r="I27" s="78"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>274</v>
       </c>
@@ -7994,18 +8476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>273</v>
       </c>
       <c r="B31" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="58" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>158</v>
       </c>
@@ -8017,7 +8499,7 @@
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>154</v>
       </c>
@@ -8029,7 +8511,7 @@
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>156</v>
       </c>
@@ -8041,12 +8523,12 @@
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="58" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="40" t="s">
         <v>149</v>
       </c>
@@ -8055,7 +8537,7 @@
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="40" t="s">
         <v>150</v>
       </c>
@@ -8064,7 +8546,7 @@
       <c r="D45" s="48"/>
       <c r="E45" s="40"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>151</v>
       </c>
@@ -8075,19 +8557,19 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="40" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="58" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="43" t="s">
         <v>278</v>
       </c>
@@ -8096,7 +8578,7 @@
       <c r="D50" s="44"/>
       <c r="E50" s="45"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="43" t="s">
         <v>279</v>
       </c>
@@ -8107,7 +8589,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="45"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="79" t="s">
         <v>280</v>
       </c>
@@ -8125,7 +8607,7 @@
       <c r="M52" s="80"/>
       <c r="N52" s="81"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="43" t="s">
         <v>281</v>
       </c>
@@ -8144,7 +8626,7 @@
       <c r="N53" s="44"/>
       <c r="O53" s="45"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="43" t="s">
         <v>282</v>
       </c>
@@ -8162,7 +8644,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="45"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="69" t="s">
         <v>283</v>
       </c>
@@ -8180,7 +8662,7 @@
       <c r="M55" s="70"/>
       <c r="N55" s="71"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="43" t="s">
         <v>284</v>
       </c>
@@ -8199,7 +8681,7 @@
       <c r="N56" s="44"/>
       <c r="O56" s="45"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="43" t="s">
         <v>285</v>
       </c>
@@ -8217,7 +8699,7 @@
       <c r="M57" s="44"/>
       <c r="N57" s="45"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="69" t="s">
         <v>286</v>
       </c>
@@ -8235,7 +8717,7 @@
       <c r="M58" s="70"/>
       <c r="N58" s="71"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="43" t="s">
         <v>287</v>
       </c>
